--- a/Master Courses/psc 587/ABC.xlsx
+++ b/Master Courses/psc 587/ABC.xlsx
@@ -1,30 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albumlin/Desktop/my_git/Master Courses/psc 587/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albumlin/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D863CE-BF7C-8B4D-8FA2-67F13818E65E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E838F88B-C767-894B-B71D-8821EF43A595}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7760" yWindow="1260" windowWidth="28040" windowHeight="16080" activeTab="1" xr2:uid="{6D4B9ECD-CA38-654D-A0FA-2A22E42627E3}"/>
+    <workbookView xWindow="3440" yWindow="1960" windowWidth="31480" windowHeight="15960" activeTab="2" xr2:uid="{6D4B9ECD-CA38-654D-A0FA-2A22E42627E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$A$5:$A$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$B$5:$B$7</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$A$5:$A$7</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$B$5:$B$7</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$A$5:$A$7</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$B$5:$B$7</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$A$5:$A$7</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$B$5:$B$7</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet3!$A$2:$A$11</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet3!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet3!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet3!$C$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet3!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet3!$A$2:$A$11</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet3!$B$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet3!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet3!$C$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet3!$C$2:$C$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="6">
   <si>
     <t>Condition</t>
   </si>
@@ -59,16 +62,7 @@
     <t>Tantrums</t>
   </si>
   <si>
-    <t>Session 1</t>
-  </si>
-  <si>
-    <t>Session 2</t>
-  </si>
-  <si>
-    <t>Session 3</t>
-  </si>
-  <si>
-    <t>Average Rate Per Hour</t>
+    <t>DDT</t>
   </si>
 </sst>
 </file>
@@ -114,7 +108,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -844,779 +838,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Verbal Protest</a:t>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Temper Control</a:t>
             </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.39677777777777784"/>
-          <c:y val="4.1666666666666664E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$A$5:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$5:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6666666666666665</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B2FE-A947-81B1-94127A5F8395}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$A$5:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$5:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6666666666666665</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B2FE-A947-81B1-94127A5F8395}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1303625968"/>
-        <c:axId val="1303196688"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1303625968"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Sessions</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
             <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1303196688"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickMarkSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1303196688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Rate Per Hour</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1303625968"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Verbal Protest</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.39677777777777784"/>
-          <c:y val="4.1666666666666664E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$A$5:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$5:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6666666666666665</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4D96-8048-A74F-4766012311AC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$A$5:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$5:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6666666666666665</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4D96-8048-A74F-4766012311AC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1303625968"/>
-        <c:axId val="1303196688"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1303625968"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Sessions</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1303196688"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickMarkSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1303196688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="7"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Rate Per Hour</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1303625968"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" baseline="0"/>
-              <a:t>Tantrum</a:t>
-            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1669,7 +894,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="square"/>
-            <c:size val="10"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -1680,67 +905,14 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$27:$A$34</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Session 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Session 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Session 1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Session 2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Session 2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Session 2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Session 3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Session 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$27:$B$34</c:f>
+              <c:f>Sheet2!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" formatCode="0%">
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1748,7 +920,75 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E0E2-E442-8A92-D92905532C68}"/>
+              <c16:uniqueId val="{00000006-0BD0-9F41-A833-034440536631}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-0BD0-9F41-A833-034440536631}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1762,11 +1002,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1304478864"/>
-        <c:axId val="1304480496"/>
+        <c:axId val="578117136"/>
+        <c:axId val="578542112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1304478864"/>
+        <c:axId val="578117136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1792,7 +1032,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1300" baseline="0"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Sessions</a:t>
                 </a:r>
               </a:p>
@@ -1829,7 +1069,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1861,17 +1101,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1304480496"/>
+        <c:crossAx val="578542112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1304480496"/>
+        <c:axId val="578542112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1895,17 +1137,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1300" baseline="0"/>
-                  <a:t>Duration of Each Recorded Tantrum</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1300" baseline="0"/>
-                  <a:t>(in minutes)</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percentage Accuracy</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1939,9 +1172,9 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1972,9 +1205,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1304478864"/>
+        <c:crossAx val="578117136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2025,6 +1259,587 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Spontaneous</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Mand Verbal Behavior</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mands</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6FBB-B442-B308-DD682DDEE6DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mands</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6FBB-B442-B308-DD682DDEE6DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1271276527"/>
+        <c:axId val="1271268175"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1271276527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sessions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1271268175"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1271268175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Rate</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> per hour</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1271276527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -2108,6 +1923,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2612,6 +2467,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3391,23 +3749,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B00CD38C-CED6-004C-A312-13785BC76E70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1BF4DEA-507E-3348-AA48-F4E6F4DBC669}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3427,61 +3785,296 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>311115</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>126980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>311115</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{637F2BF5-416A-E145-B637-1AD05BEA8E6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6089615" y="1142980"/>
+          <a:ext cx="0" cy="3263920"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.1284</cdr:x>
+      <cdr:y>0.11642</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.92996</cdr:x>
+      <cdr:y>0.18209</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0423408-3D79-D448-9A0B-792E8CA2C0C3}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="838200" y="495300"/>
+          <a:ext cx="5232400" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Baselin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>          Intervention</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.47082</cdr:x>
+      <cdr:y>0.64776</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.49027</cdr:x>
+      <cdr:y>0.80299</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{732D8F60-5F8F-464E-A433-7BAD74E6099B}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3073440" y="2755892"/>
+          <a:ext cx="126966" cy="660426"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.41245</cdr:x>
+      <cdr:y>0.52537</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.52918</cdr:x>
+      <cdr:y>0.61492</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3282BAD-3F99-2E4D-8C44-D2B568469761}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2692419" y="2235182"/>
+          <a:ext cx="761990" cy="380991"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Bad</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> sleep last night</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>167306</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>45629</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03E8EB0F-0FFD-0343-9425-A099A9B53C33}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2654300</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{559C6A12-4D25-784D-AE31-6A86A383B0DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D94CA892-650C-634F-97E6-046307B34124}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3493,13 +4086,290 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>410660</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>60839</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>433474</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>121678</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F75ED5D1-BF05-5140-843E-CD582D2C471B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7870959" y="1908803"/>
+          <a:ext cx="22814" cy="2319462"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15209</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28892</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25207</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C7176E0-B027-044B-A8D3-813B1C050F7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9962275" y="2897425"/>
+          <a:ext cx="13683" cy="413051"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>486706</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>159701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419774</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>130033</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67903113-FD38-AF42-A727-D63C9B20CE90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9604850" y="2418324"/>
+          <a:ext cx="761990" cy="380990"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Bad</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> sleep last night</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.11258</cdr:x>
+      <cdr:y>0.13517</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.95874</cdr:x>
+      <cdr:y>0.2339</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C62616F0-06B2-B34B-BFA7-797BFFF97C49}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="517012" y="374841"/>
+          <a:ext cx="3886047" cy="273772"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> Baseline</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>         Intervention</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3802,7 +4672,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3999,153 +4869,247 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C366669-C0F7-D545-BAF2-BC78BBC3D6FF}">
-  <dimension ref="A1:B35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24E84F3-8A91-1F45-B589-B1A30E52F926}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="39.1640625" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1">
-        <v>13</v>
-      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>19</v>
-      </c>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2">
+        <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <f xml:space="preserve"> 13/3</f>
-        <v>4.333333333333333</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2">
+        <v>0.15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2">
-        <f>19/3</f>
-        <v>6.333333333333333</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2">
+        <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2">
-        <f>8/3</f>
-        <v>2.6666666666666665</v>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <f xml:space="preserve"> SUM(B5:B7)/3</f>
-        <v>4.4444444444444438</v>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2">
+        <v>0.6</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27">
-        <v>30</v>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2">
+        <v>0.4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28">
-        <v>15</v>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2">
+        <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29">
-        <v>22</v>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2">
+        <v>0.7</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B35">
-        <f xml:space="preserve"> SUM(B27:B34)</f>
-        <v>181</v>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D10F11-F3BF-B044-BFB4-F8D093361689}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1">
+        <f xml:space="preserve"> AVERAGE(C4:C11)</f>
+        <v>7.875</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>